--- a/test/test_data/lookup/local_lookup_tables.xlsx
+++ b/test/test_data/lookup/local_lookup_tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\innova_svn\SoftwaresDevelopment\InnovaSoftwares\ToolData\NextBuilder\excels\ToolData\Features\Common\v01.00.01\Chrysler_v02.00.00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__development__\excel-data\test\test_data\lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="799" firstSheet="4" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="799" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="76" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6756" uniqueCount="2481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6762" uniqueCount="2482">
   <si>
     <t>Value</t>
   </si>
@@ -7490,6 +7490,9 @@
   </si>
   <si>
     <t>FormulaID_0002</t>
+  </si>
+  <si>
+    <t>07:Pending///13 B0:Current///13 80:History///01 0A:Permanent</t>
   </si>
 </sst>
 </file>
@@ -7640,6 +7643,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7675,6 +7695,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17002,9 +17039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18770,6 +18809,26 @@
       </c>
       <c r="F88" s="1" t="s">
         <v>1096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2481</v>
       </c>
     </row>
   </sheetData>
@@ -19025,7 +19084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
